--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-15T14:30:11+00:00</t>
+    <t>2022-12-15T14:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-15T14:38:24+00:00</t>
+    <t>2022-12-15T14:46:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
